--- a/1-repeated-measures-expected-values/bp-solution.xlsx
+++ b/1-repeated-measures-expected-values/bp-solution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\olt-intermediate-stats\1-repeated-measures-expected-values\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1E8997-14DD-4876-BE34-CB1279E381C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EF6DD0-0268-4AAC-BA29-EDD69738CA75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{316BC099-8034-474B-B2B7-0AAC981BCD95}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{316BC099-8034-474B-B2B7-0AAC981BCD95}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -500,7 +500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F680B4-3E51-4AB9-AB6A-D826AD9B744A}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63043E7-7A10-4A2E-BA1C-809B89C0A43B}">
   <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
